--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,30 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paddy\Documents\GitHub\iat-814-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415EEBE5-D488-4214-A193-7610613BBC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B483BC-F26B-436F-BA79-A92454914D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
     <sheet name="Beds" sheetId="2" r:id="rId2"/>
     <sheet name="Porter-Cleaner" sheetId="4" r:id="rId3"/>
     <sheet name="Summary Stats" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Questions</t>
   </si>
@@ -157,6 +164,54 @@
   </si>
   <si>
     <t>Which departments have the highest (New Patient Arrival - Patient Discharge) time?</t>
+  </si>
+  <si>
+    <t>Total admissions  over a period (per week)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total discharges over a period (per week) </t>
+  </si>
+  <si>
+    <t>(to see the trend in the weekday - - any peaks during weekend? Friday?</t>
+  </si>
+  <si>
+    <t>Date,Department,Unit</t>
+  </si>
+  <si>
+    <t>Patient arrival time</t>
+  </si>
+  <si>
+    <t>Patient discharge time</t>
+  </si>
+  <si>
+    <t>Wait times in the department?(external source)</t>
+  </si>
+  <si>
+    <t>Date, Department</t>
+  </si>
+  <si>
+    <t>Avg.wait-times</t>
+  </si>
+  <si>
+    <t>(to see the demand vs supply -beds)</t>
+  </si>
+  <si>
+    <t>Avg.cleaning time by each cleaner</t>
+  </si>
+  <si>
+    <t>Avg.moving time by each cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date, CleanerID, BedNum </t>
+  </si>
+  <si>
+    <t>Date, PorterID, PatientId</t>
+  </si>
+  <si>
+    <t>Avg(Cleaning time)</t>
+  </si>
+  <si>
+    <t>Avg(moving time)</t>
   </si>
 </sst>
 </file>
@@ -486,20 +541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -532,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -543,7 +598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -554,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -563,6 +618,33 @@
       </c>
       <c r="C6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -573,20 +655,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34972D0C-750B-4B47-97D7-EEB35A8C7351}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -608,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -619,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -639,6 +721,22 @@
       </c>
       <c r="C5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -648,20 +746,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E71215-777C-40DB-8E9B-DC71F8364017}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -683,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -694,7 +792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -705,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -716,12 +814,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -733,36 +853,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1FA2C3-D170-40E0-A5E6-BA2E7490FA4F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -770,4 +890,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE787375-A80C-4E31-A84F-D660D5B3E56D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkenday\Documents\GitHub\iat-814-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B483BC-F26B-436F-BA79-A92454914D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A111EE-2EF1-4364-ADB8-4B94A9B7235C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Questions</t>
   </si>
@@ -212,13 +212,82 @@
   </si>
   <si>
     <t>Avg(moving time)</t>
+  </si>
+  <si>
+    <t>Background Research</t>
+  </si>
+  <si>
+    <t>Feb 20,2020</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>Viz Tool (D3) use</t>
+  </si>
+  <si>
+    <t>Phase 1 Viz implementation</t>
+  </si>
+  <si>
+    <t>Phase 2 Viz implementation</t>
+  </si>
+  <si>
+    <t>Apr 1,2020</t>
+  </si>
+  <si>
+    <t>Final Tuning / Project Writing</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Feb 15,2020</t>
+  </si>
+  <si>
+    <t>Mar 01,2020</t>
+  </si>
+  <si>
+    <t>Mar 15,2020</t>
+  </si>
+  <si>
+    <t>Mar 30,2020</t>
+  </si>
+  <si>
+    <t>Apr 10,2020</t>
+  </si>
+  <si>
+    <t>Unit,Bedno,</t>
+  </si>
+  <si>
+    <t>Turnaround time over a period (1 month) by Unit</t>
+  </si>
+  <si>
+    <t>Date,Turnaroundtime,Unit</t>
+  </si>
+  <si>
+    <t>Line chart,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +303,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,18 +333,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Date" xfId="1" xr:uid="{4B13DF78-D7CF-478E-9049-9D2EFEC29318}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +648,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,7 +762,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -749,7 +853,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -851,40 +955,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1FA2C3-D170-40E0-A5E6-BA2E7490FA4F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -894,14 +1014,104 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE787375-A80C-4E31-A84F-D660D5B3E56D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="30.265625" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>